--- a/color scheme.xlsx
+++ b/color scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniehawley/Documents/BYU/wdd230/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC7362-053F-2949-9F96-2E5763463A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5802DB46-DF61-834E-9702-50E8A331CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{C325C359-A9A7-3041-9802-9B3F1E76D42B}"/>
+    <workbookView xWindow="21940" yWindow="2200" windowWidth="10000" windowHeight="17440" xr2:uid="{C325C359-A9A7-3041-9802-9B3F1E76D42B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Site Header</t>
   </si>
@@ -58,85 +58,22 @@
     <t>Font</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>background color</t>
-  </si>
-  <si>
-    <t>Rubik</t>
-  </si>
-  <si>
-    <t>Hind Siliguri</t>
-  </si>
-  <si>
     <t>30px</t>
   </si>
   <si>
-    <t>17px</t>
-  </si>
-  <si>
     <t>18px</t>
   </si>
   <si>
-    <t>25px</t>
-  </si>
-  <si>
-    <t>20px</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <r>
-      <t>#830B4D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>#589DB1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>#DDF4F8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>#FFFFFF</t>
+    <t>Font size</t>
+  </si>
+  <si>
+    <t>Encode Sans Expanded</t>
+  </si>
+  <si>
+    <t>Noto Sans Display</t>
+  </si>
+  <si>
+    <t>15px</t>
   </si>
 </sst>
 </file>
@@ -166,19 +103,19 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF98C379"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FFD19A66"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFABB2BF"/>
+      <sz val="12"/>
+      <color rgb="FFD19A66"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF98C379"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -203,15 +140,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,157 +464,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999F401-592D-6B48-A148-FF4DD3BCB566}">
-  <dimension ref="A6:F13"/>
+  <dimension ref="A6:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
